--- a/biology/Botanique/Cynanchum_acutum/Cynanchum_acutum.xlsx
+++ b/biology/Botanique/Cynanchum_acutum/Cynanchum_acutum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynanchum acutum, la Scammonée de Montpellier ou Scammonée aiguë, est une espèce de plante herbacée méditerranéenne de la famille des Asclépiadacées.
-Sa floraison a lieu de juin à septembre[2].
+Sa floraison a lieu de juin à septembre.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (25 décembre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (25 décembre 2013) :
 sous-espèce Cynanchum acutum subsp. sibiricum (Willd.) Rech.f.
-Selon Tropicos                                           (25 décembre 2013)[3] (Attention liste brute cntenant possiblement des synonymes) :
+Selon Tropicos                                           (25 décembre 2013) (Attention liste brute cntenant possiblement des synonymes) :
 sous-espèce Cynanchum acutum subsp. sibiricum (Willd.) Rech. f.
 variété Cynanchum acutum var. longifolium (G. Martens) Ledeb.</t>
         </is>
